--- a/설계/테이블 구성.xlsx
+++ b/설계/테이블 구성.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C54110-8C09-461D-BAFD-D3CAD7D8DFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810C70F7-F935-4478-A413-F91DE88EAE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-3285" windowWidth="38670" windowHeight="21270" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="42180" yWindow="2670" windowWidth="28800" windowHeight="15500" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="game-data" sheetId="3" r:id="rId1"/>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="340">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1754,6 +1754,62 @@
   </si>
   <si>
     <t>레벨업을 위해 쌓은 업그레이드 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_current_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 유저가 장착하고 있는 채비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 현재 장착하고 있는 rod id (user_item_id를 가진다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 현재 장착하고 있는 line id (user_item_id를 가진다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 현재 장착하고 있는 reel id (user_item_id를 가진다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 현재 장착하고 있는 hook id (user_item_id를 가진다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 현재 장착하고 있는 bait id (user_item_id를 가진다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 현재 장착하고 있는 sinker id (user_item_id를 가진다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_rod_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_line_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_reel_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_hook_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_bait_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_sinker_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2290,13 +2346,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF64E5F-28AE-4868-B332-37029AACFFCF}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -2305,7 +2361,7 @@
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
         <v>314</v>
       </c>
@@ -2313,7 +2369,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2330,7 +2386,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2347,7 +2403,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2362,7 +2418,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2377,7 +2433,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2392,7 +2448,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>189</v>
       </c>
@@ -2400,7 +2456,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -2417,7 +2473,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -2434,7 +2490,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -2451,7 +2507,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -2468,7 +2524,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -2485,7 +2541,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -2502,7 +2558,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -2519,7 +2575,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>197</v>
       </c>
@@ -2527,7 +2583,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2600,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -2561,7 +2617,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -2578,7 +2634,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -2595,7 +2651,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>4</v>
       </c>
@@ -2612,13 +2668,13 @@
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
         <v>202</v>
       </c>
@@ -2626,7 +2682,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
         <v>0</v>
       </c>
@@ -2643,7 +2699,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -2660,7 +2716,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -2675,7 +2731,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>3</v>
       </c>
@@ -2690,7 +2746,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -2705,7 +2761,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
         <v>315</v>
       </c>
@@ -2713,7 +2769,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
@@ -2730,7 +2786,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -2747,7 +2803,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -2764,7 +2820,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>3</v>
       </c>
@@ -2779,7 +2835,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
         <v>316</v>
       </c>
@@ -2787,7 +2843,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="10" t="s">
         <v>0</v>
       </c>
@@ -2804,7 +2860,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -2821,7 +2877,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -2836,7 +2892,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -2853,7 +2909,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="11" t="s">
         <v>221</v>
       </c>
@@ -2861,7 +2917,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
@@ -2878,7 +2934,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -2895,7 +2951,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -2912,7 +2968,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>3</v>
       </c>
@@ -2927,7 +2983,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>4</v>
       </c>
@@ -2942,7 +2998,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>5</v>
       </c>
@@ -2957,7 +3013,7 @@
       </c>
       <c r="E49" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="11" t="s">
         <v>229</v>
       </c>
@@ -2965,7 +3021,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="10" t="s">
         <v>0</v>
       </c>
@@ -2982,7 +3038,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -2999,7 +3055,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>2</v>
       </c>
@@ -3016,7 +3072,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>3</v>
       </c>
@@ -3033,7 +3089,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>4</v>
       </c>
@@ -3048,7 +3104,7 @@
       </c>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>5</v>
       </c>
@@ -3065,7 +3121,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>6</v>
       </c>
@@ -3080,7 +3136,7 @@
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>7</v>
       </c>
@@ -3095,7 +3151,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>8</v>
       </c>
@@ -3110,14 +3166,14 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="11" t="s">
         <v>208</v>
       </c>
@@ -3125,7 +3181,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
@@ -3142,7 +3198,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -3159,7 +3215,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>2</v>
       </c>
@@ -3174,7 +3230,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>3</v>
       </c>
@@ -3189,7 +3245,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>4</v>
       </c>
@@ -3204,7 +3260,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>5</v>
       </c>
@@ -3219,14 +3275,14 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
         <v>149</v>
       </c>
@@ -3237,7 +3293,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="s">
         <v>0</v>
       </c>
@@ -3254,7 +3310,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="7">
         <v>1</v>
       </c>
@@ -3271,7 +3327,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="7">
         <v>2</v>
       </c>
@@ -3286,7 +3342,7 @@
       </c>
       <c r="E73" s="7"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>265</v>
       </c>
@@ -3294,7 +3350,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="20" t="s">
         <v>0</v>
       </c>
@@ -3311,7 +3367,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="7">
         <v>1</v>
       </c>
@@ -3328,7 +3384,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="7">
         <v>2</v>
       </c>
@@ -3343,7 +3399,7 @@
       </c>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="7">
         <v>3</v>
       </c>
@@ -3358,7 +3414,7 @@
       </c>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="7">
         <v>4</v>
       </c>
@@ -3375,14 +3431,14 @@
         <v>286</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>322</v>
       </c>
@@ -3390,7 +3446,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="20" t="s">
         <v>0</v>
       </c>
@@ -3407,7 +3463,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="9">
         <v>1</v>
       </c>
@@ -3424,7 +3480,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="9">
         <v>2</v>
       </c>
@@ -3438,7 +3494,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>3</v>
       </c>
@@ -3452,7 +3508,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="9">
         <v>4</v>
       </c>
@@ -3466,7 +3522,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>269</v>
       </c>
@@ -3474,7 +3530,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="10" t="s">
         <v>0</v>
       </c>
@@ -3491,7 +3547,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3508,7 +3564,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>2</v>
       </c>
@@ -3522,7 +3578,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>3</v>
       </c>
@@ -3536,7 +3592,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>4</v>
       </c>
@@ -3553,7 +3609,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>5</v>
       </c>
@@ -3568,6 +3624,132 @@
       </c>
       <c r="E95" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B97" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" t="s">
+        <v>140</v>
+      </c>
+      <c r="E99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>334</v>
+      </c>
+      <c r="C100" t="s">
+        <v>328</v>
+      </c>
+      <c r="D100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101" t="s">
+        <v>335</v>
+      </c>
+      <c r="C101" t="s">
+        <v>329</v>
+      </c>
+      <c r="D101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>336</v>
+      </c>
+      <c r="C102" t="s">
+        <v>330</v>
+      </c>
+      <c r="D102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>337</v>
+      </c>
+      <c r="C103" t="s">
+        <v>331</v>
+      </c>
+      <c r="D103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>338</v>
+      </c>
+      <c r="C104" t="s">
+        <v>332</v>
+      </c>
+      <c r="D104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>339</v>
+      </c>
+      <c r="C105" t="s">
+        <v>333</v>
+      </c>
+      <c r="D105" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3585,21 +3767,21 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="70.625" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="70.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="18.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3616,7 +3798,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3637,7 +3819,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3652,7 +3834,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3667,7 +3849,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3682,7 +3864,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3697,7 +3879,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3712,7 +3894,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -3727,7 +3909,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -3742,7 +3924,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -3757,7 +3939,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -3772,7 +3954,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -3780,7 +3962,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -3797,7 +3979,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -3814,7 +3996,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -3829,7 +4011,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -3844,12 +4026,12 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
@@ -3866,7 +4048,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -3883,7 +4065,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -3898,7 +4080,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -3913,7 +4095,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -3928,7 +4110,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -3943,7 +4125,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>6</v>
       </c>
@@ -3958,7 +4140,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>7</v>
       </c>
@@ -3973,7 +4155,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>8</v>
       </c>
@@ -3988,7 +4170,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -3996,7 +4178,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
@@ -4013,7 +4195,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -4030,7 +4212,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -4045,7 +4227,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
@@ -4053,7 +4235,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
         <v>0</v>
       </c>
@@ -4070,7 +4252,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -4087,7 +4269,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -4104,7 +4286,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>3</v>
       </c>
@@ -4119,7 +4301,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>4</v>
       </c>
@@ -4134,7 +4316,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
@@ -4142,7 +4324,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
@@ -4159,7 +4341,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -4176,7 +4358,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -4193,7 +4375,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>292</v>
       </c>
@@ -4201,7 +4383,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
         <v>0</v>
       </c>
@@ -4218,7 +4400,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -4235,7 +4417,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -4250,7 +4432,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>3</v>
       </c>
@@ -4265,7 +4447,7 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>236</v>
       </c>
@@ -4273,7 +4455,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
@@ -4290,7 +4472,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -4307,7 +4489,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>2</v>
       </c>
@@ -4322,7 +4504,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>240</v>
       </c>
@@ -4330,7 +4512,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="10" t="s">
         <v>0</v>
       </c>
@@ -4347,7 +4529,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -4364,7 +4546,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>2</v>
       </c>
@@ -4379,7 +4561,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>204</v>
       </c>
@@ -4387,7 +4569,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="s">
         <v>0</v>
       </c>
@@ -4404,7 +4586,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -4421,7 +4603,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>2</v>
       </c>
@@ -4436,7 +4618,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>3</v>
       </c>
@@ -4451,7 +4633,7 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>151</v>
       </c>
@@ -4459,7 +4641,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="s">
         <v>0</v>
       </c>
@@ -4476,7 +4658,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -4493,7 +4675,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>2</v>
       </c>
@@ -4508,7 +4690,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4529,16 +4711,16 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="49.625" customWidth="1"/>
+    <col min="1" max="1" width="24.58203125" customWidth="1"/>
+    <col min="2" max="2" width="49.58203125" customWidth="1"/>
     <col min="3" max="3" width="108" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4546,7 +4728,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4563,7 +4745,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4580,7 +4762,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4595,7 +4777,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4610,7 +4792,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4625,7 +4807,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>293</v>
       </c>
@@ -4633,7 +4815,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -4650,7 +4832,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -4667,7 +4849,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -4682,17 +4864,17 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
@@ -4709,7 +4891,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -4726,7 +4908,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -4741,7 +4923,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -4756,12 +4938,12 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>155</v>
       </c>
@@ -4769,7 +4951,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -4786,7 +4968,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -4803,7 +4985,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -4818,7 +5000,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -4833,7 +5015,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -4848,14 +5030,14 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>163</v>
       </c>
@@ -4863,7 +5045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
@@ -4880,7 +5062,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -4897,7 +5079,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -4912,7 +5094,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>3</v>
       </c>
@@ -4927,7 +5109,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>246</v>
       </c>
@@ -4935,7 +5117,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="s">
         <v>0</v>
       </c>
@@ -4952,7 +5134,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -4969,7 +5151,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -4986,7 +5168,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="16">
         <v>3</v>
       </c>
@@ -5001,7 +5183,7 @@
       </c>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="17">
         <v>4</v>
       </c>
@@ -5016,7 +5198,7 @@
       </c>
       <c r="E37" s="19"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
         <v>5</v>
       </c>
@@ -5031,7 +5213,7 @@
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>6</v>
       </c>
@@ -5046,7 +5228,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
         <v>7</v>
       </c>
@@ -5061,14 +5243,14 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>161</v>
       </c>
@@ -5079,7 +5261,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>0</v>
       </c>
@@ -5098,7 +5280,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="8">
         <v>1</v>
       </c>
@@ -5115,7 +5297,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="8">
         <v>2</v>
       </c>
@@ -5130,14 +5312,14 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>166</v>
       </c>
@@ -5145,7 +5327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="10" t="s">
         <v>0</v>
       </c>
@@ -5162,7 +5344,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -5179,7 +5361,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>2</v>
       </c>
@@ -5194,7 +5376,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>3</v>
       </c>
@@ -5209,7 +5391,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -5224,14 +5406,14 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
         <v>249</v>
       </c>
@@ -5242,7 +5424,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
@@ -5262,7 +5444,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="8">
         <v>1</v>
       </c>
@@ -5279,7 +5461,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="8">
         <v>2</v>
       </c>
@@ -5296,7 +5478,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="8">
         <v>3</v>
       </c>
@@ -5311,7 +5493,7 @@
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="8">
         <v>4</v>
       </c>
@@ -5326,7 +5508,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="12">
         <v>5</v>
       </c>
@@ -5341,7 +5523,7 @@
       </c>
       <c r="E60" s="7"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>44</v>
       </c>
@@ -5349,7 +5531,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
@@ -5366,7 +5548,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -5383,7 +5565,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>2</v>
       </c>
@@ -5398,7 +5580,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>3</v>
       </c>
@@ -5413,7 +5595,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>4</v>
       </c>
@@ -5428,7 +5610,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>47</v>
       </c>
@@ -5436,7 +5618,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="10" t="s">
         <v>0</v>
       </c>
@@ -5453,7 +5635,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -5470,7 +5652,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>2</v>
       </c>
@@ -5485,7 +5667,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>3</v>
       </c>
@@ -5500,14 +5682,14 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>251</v>
       </c>
@@ -5516,7 +5698,7 @@
       </c>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="10" t="s">
         <v>0</v>
       </c>
@@ -5533,7 +5715,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -5550,7 +5732,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>2</v>
       </c>
@@ -5567,7 +5749,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>3</v>
       </c>
@@ -5582,7 +5764,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="9">
         <v>4</v>
       </c>
@@ -5597,7 +5779,7 @@
       </c>
       <c r="E80" s="7"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>173</v>
       </c>
@@ -5605,7 +5787,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="10" t="s">
         <v>0</v>
       </c>
@@ -5622,7 +5804,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>1</v>
       </c>
@@ -5639,7 +5821,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>2</v>
       </c>
@@ -5654,7 +5836,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>3</v>
       </c>
@@ -5669,7 +5851,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>172</v>
       </c>
@@ -5677,7 +5859,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="10" t="s">
         <v>0</v>
       </c>
@@ -5694,7 +5876,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>1</v>
       </c>
@@ -5711,7 +5893,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>2</v>
       </c>
@@ -5726,7 +5908,7 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>3</v>
       </c>
@@ -5741,7 +5923,7 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>176</v>
       </c>
@@ -5749,7 +5931,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="10" t="s">
         <v>0</v>
       </c>
@@ -5766,7 +5948,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>1</v>
       </c>
@@ -5783,7 +5965,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>2</v>
       </c>
@@ -5798,7 +5980,7 @@
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="8">
         <v>3</v>
       </c>
@@ -5813,7 +5995,7 @@
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="8">
         <v>4</v>
       </c>
@@ -5828,7 +6010,7 @@
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>274</v>
       </c>
@@ -5836,7 +6018,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="10" t="s">
         <v>0</v>
       </c>
@@ -5853,7 +6035,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>1</v>
       </c>
@@ -5870,7 +6052,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>2</v>
       </c>
@@ -5885,7 +6067,7 @@
       </c>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>3</v>
       </c>
@@ -5900,7 +6082,7 @@
       </c>
       <c r="E105" s="2"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>261</v>
       </c>
@@ -5908,7 +6090,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="10" t="s">
         <v>0</v>
       </c>
@@ -5925,7 +6107,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -5942,7 +6124,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>2</v>
       </c>
@@ -5957,7 +6139,7 @@
       </c>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>3</v>
       </c>
